--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1308.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1308.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.01331835972401</v>
+        <v>1.088150978088379</v>
       </c>
       <c r="B1">
-        <v>2.53196728052218</v>
+        <v>2.155479907989502</v>
       </c>
       <c r="C1">
-        <v>5.482221791291853</v>
+        <v>9.494928359985352</v>
       </c>
       <c r="D1">
-        <v>2.201669130654918</v>
+        <v>1.016748547554016</v>
       </c>
       <c r="E1">
-        <v>1.252766062336069</v>
+        <v>1.145743012428284</v>
       </c>
     </row>
   </sheetData>
